--- a/Report/Data.xlsx
+++ b/Report/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,8 +11,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>Ascent (m)</t>
+  </si>
+  <si>
+    <t>Descent (m)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,6 +72,370 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ascent (m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Descent (m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="72176768"/>
+        <c:axId val="72178304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="72176768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72178304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72178304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72176768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ascent (m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Descent (m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="113777664"/>
+        <c:axId val="105218816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="113777664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105218816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="105218816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113777664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,13 +723,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.16</v>
+      </c>
+      <c r="G3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>16.3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>16.2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.36</v>
+      </c>
+      <c r="G6">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>18.43</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.34</v>
+      </c>
+      <c r="G7">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>17.11</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>16.8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.4</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12">
+        <f>AVERAGE(B3:B11)</f>
+        <v>16.791428571428572</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C3:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(F3:F11)</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(G3:G11)</f>
+        <v>14.045714285714286</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
